--- a/RXL_TextBetween.xlsx
+++ b/RXL_TextBetween.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\USBC Backup\_RXL\Development\LAMBDA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USBC Backup\_RXL\Development\LAMBDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FF29DE-D694-4C0A-B9BE-3CEC5A985D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE7F555-8B6C-487A-AF85-AE5BDF902D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C29E0D24-0EA8-4D41-8E06-9F040E158B6C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C29E0D24-0EA8-4D41-8E06-9F040E158B6C}"/>
   </bookViews>
   <sheets>
     <sheet name="TextBetween" sheetId="13" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_OnOff">Lookups!$C$6:$C$7</definedName>
     <definedName name="_YesNo">Lookups!$C$3:$C$4</definedName>
-    <definedName name="RXL_TextBetween">_xlfn.LAMBDA(_xlpm.text,_xlop.start_delimiter,_xlop.end_delimiter,_xlop.start_instance,_xlop.end_instance,_xlop.case_sensitive,_xlop.if_not_found,_xlfn.LET(_xlpm._delimA,IF(OR(_xlfn.ISOMITTED(_xlpm.start_delimiter),ISBLANK(_xlpm.start_delimiter)),"",_xlpm.start_delimiter),_xlpm._delimB,IF(OR(_xlfn.ISOMITTED(_xlpm.end_delimiter),ISBLANK(_xlpm.end_delimiter)),"",_xlpm.end_delimiter),_xlpm._instA,IF(OR(_xlfn.ISOMITTED(_xlpm.start_instance),ISBLANK(_xlpm.start_instance)),1,INT(_xlpm.start_instance)),_xlpm._instB,IF(OR(_xlfn.ISOMITTED(_xlpm.end_instance),ISBLANK(_xlpm.end_instance)),-1,INT(_xlpm.end_instance)),_xlpm._case,IF(_xlfn.ISOMITTED(_xlpm.case_sensitive),0,IF(_xlpm.case_sensitive,0,1)),_xlpm._inf,IF(OR(_xlfn.ISOMITTED(_xlpm.if_not_found),ISBLANK(_xlpm.if_not_found),_xlpm.if_not_found="",AND(ISLOGICAL(_xlpm.if_not_found),_xlpm.if_not_found=FALSE)),NA(),IF(ISLOGICAL(_xlpm.if_not_found),_xlpm.text,_xlpm.if_not_found)),_xlpm._end,IF(ISLOGICAL(_xlpm.if_not_found),_xlpm.if_not_found*1,0),_xlpm._inpChk,IF(OR(NOT(ISNUMBER(_xlpm._instA)),NOT(ISNUMBER(_xlpm._instB)),AND(NOT(ISLOGICAL(_xlpm._case)),NOT(ISNUMBER(_xlpm._case)))),2,1),_xlpm._calc,IF(OR(AND(_xlpm._delimA="",_xlpm._delimB="")),_xlpm.text,_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(_xlpm.text,_xlpm._delimA,_xlpm._instA,_xlpm._case,_xlpm._end,_xlpm._inf),_xlpm._delimB,_xlpm._instB,_xlpm._case,,_xlpm._inf)),_xlpm._rtn,IF(AND(ISERROR(_xlpm._calc),_xlpm._end=1),_xlpm.text,_xlpm._calc),CHOOSE(_xlpm._inpChk,_xlpm._rtn,#VALUE!)))</definedName>
+    <definedName name="RXL_TextBetween" comment="Returns the characters from a text string between a starting delimiter character(s) and ending delimiter character(s)">_xlfn.LAMBDA(_xlpm.text,_xlop.start_delimiter,_xlop.end_delimiter,_xlop.start_instance,_xlop.end_instance,_xlop.case_sensitive,_xlop.if_not_found,_xlfn.LET(_xlpm._delimA,IF(OR(_xlfn.ISOMITTED(_xlpm.start_delimiter),ISBLANK(_xlpm.start_delimiter)),"",_xlpm.start_delimiter),_xlpm._delimB,IF(OR(_xlfn.ISOMITTED(_xlpm.end_delimiter),ISBLANK(_xlpm.end_delimiter)),"",_xlpm.end_delimiter),_xlpm._instA,IF(OR(_xlfn.ISOMITTED(_xlpm.start_instance),ISBLANK(_xlpm.start_instance)),1,INT(_xlpm.start_instance)),_xlpm._instB,IF(OR(_xlfn.ISOMITTED(_xlpm.end_instance),ISBLANK(_xlpm.end_instance)),-1,INT(_xlpm.end_instance)),_xlpm._case,IF(_xlfn.ISOMITTED(_xlpm.case_sensitive),0,IF(_xlpm.case_sensitive,0,1)),_xlpm._inf,IF(OR(_xlfn.ISOMITTED(_xlpm.if_not_found),ISBLANK(_xlpm.if_not_found),_xlpm.if_not_found="",AND(ISLOGICAL(_xlpm.if_not_found),_xlpm.if_not_found=FALSE)),NA(),IF(ISLOGICAL(_xlpm.if_not_found),_xlpm.text,_xlpm.if_not_found)),_xlpm._end,IF(ISLOGICAL(_xlpm.if_not_found),_xlpm.if_not_found*1,0),_xlpm._inpChk,IF(OR(NOT(ISNUMBER(_xlpm._instA)),NOT(ISNUMBER(_xlpm._instB)),AND(NOT(ISLOGICAL(_xlpm._case)),NOT(ISNUMBER(_xlpm._case)))),2,1),_xlpm._calc,IF(OR(AND(_xlpm._delimA="",_xlpm._delimB="")),_xlpm.text,_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(_xlpm.text,_xlpm._delimA,_xlpm._instA,_xlpm._case,_xlpm._end,_xlpm._inf),_xlpm._delimB,_xlpm._instB,_xlpm._case,,_xlpm._inf)),_xlpm._rtn,IF(AND(ISERROR(_xlpm._calc),_xlpm._end=1),_xlpm.text,_xlpm._calc),CHOOSE(_xlpm._inpChk,_xlpm._rtn,#VALUE!)))</definedName>
   </definedNames>
   <calcPr calcId="191029" calcMode="autoNoTable"/>
   <extLst>
@@ -3598,7 +3598,7 @@
     <cellStyle name="Output - SubTotal" xfId="68" xr:uid="{3944BA35-D861-48C8-BF5E-3B5A261E1A76}"/>
     <cellStyle name="Output - Text" xfId="69" xr:uid="{D8AED5B9-3D8F-49BF-8E7D-B2C435B0B345}"/>
     <cellStyle name="Output - Total" xfId="70" xr:uid="{4535EB24-0E67-4CEB-99CB-25A662CC9E57}"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5" customBuiltin="1"/>
+    <cellStyle name="Per cent" xfId="5" builtinId="5" customBuiltin="1"/>
     <cellStyle name="Ref.In - #" xfId="78" xr:uid="{7AC7FA44-CE33-4D97-A9FF-6DB2BE2FBF7C}"/>
     <cellStyle name="Ref.In - %" xfId="79" xr:uid="{BE627C07-1DF5-42CE-90A7-95B617354C42}"/>
     <cellStyle name="Ref.In - Date" xfId="80" xr:uid="{70FB18BE-2731-4B77-8479-BF1A1A35C14E}"/>
@@ -4121,19 +4121,19 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="4.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="1" max="3" width="4.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19"/>
       <c r="C1" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B3" s="40" t="s">
         <v>12</v>
       </c>
@@ -4155,37 +4155,37 @@
       <c r="R3" s="24"/>
       <c r="S3" s="24"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D7" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D8" s="20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C10" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D11" s="21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D13" s="22" t="s">
         <v>19</v>
       </c>
@@ -4193,19 +4193,19 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D14" s="22"/>
       <c r="F14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D15" s="22"/>
       <c r="F15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D16" s="22" t="s">
         <v>22</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D17" s="22" t="s">
         <v>23</v>
       </c>
@@ -4221,19 +4221,19 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D18" s="22"/>
       <c r="F18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D19" s="22"/>
       <c r="F19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D20" s="22" t="s">
         <v>26</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D21" s="22"/>
       <c r="F21" s="25">
         <v>0</v>
@@ -4250,7 +4250,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D22" s="22"/>
       <c r="F22" s="25">
         <v>1</v>
@@ -4259,7 +4259,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D23" s="22" t="s">
         <v>29</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D24" s="22"/>
       <c r="F24" s="25">
         <v>0</v>
@@ -4276,7 +4276,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D25" s="22"/>
       <c r="F25" s="25">
         <v>1</v>
@@ -4285,7 +4285,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D26" s="22" t="s">
         <v>32</v>
       </c>
@@ -4293,17 +4293,17 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
       <c r="F27" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C28" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D29" s="23" t="e">
         <v>#VALUE!</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D30" s="23" t="e">
         <v>#N/A</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D31" s="23" t="e">
         <v>#N/A</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B34" s="40" t="s">
         <v>44</v>
       </c>
@@ -4349,37 +4349,37 @@
       <c r="R34" s="24"/>
       <c r="S34" s="24"/>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D38" s="20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D39" s="20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C41" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D42" s="21" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D44" s="22" t="s">
         <v>19</v>
       </c>
@@ -4387,19 +4387,19 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D45" s="22"/>
       <c r="F45" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D46" s="22"/>
       <c r="F46" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D47" s="22" t="s">
         <v>22</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D48" s="22" t="s">
         <v>23</v>
       </c>
@@ -4415,19 +4415,19 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D49" s="22"/>
       <c r="F49" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D50" s="22"/>
       <c r="F50" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D51" s="22" t="s">
         <v>26</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D52" s="22"/>
       <c r="F52" s="25">
         <v>0</v>
@@ -4444,7 +4444,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D53" s="22"/>
       <c r="F53" s="25">
         <v>1</v>
@@ -4453,7 +4453,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D54" s="22" t="s">
         <v>29</v>
       </c>
@@ -4461,7 +4461,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D55" s="22"/>
       <c r="F55" s="25">
         <v>0</v>
@@ -4470,7 +4470,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D56" s="22"/>
       <c r="F56" s="25">
         <v>1</v>
@@ -4479,7 +4479,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D57" s="22" t="s">
         <v>32</v>
       </c>
@@ -4487,17 +4487,17 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:7" x14ac:dyDescent="0.3">
       <c r="F58" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C59" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D60" s="23" t="e">
         <v>#VALUE!</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D61" s="23" t="e">
         <v>#N/A</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D62" s="23" t="e">
         <v>#N/A</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="2:8" s="13" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:8" s="13" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B65" s="14">
         <f xml:space="preserve"> MAX(B$1:B1) + 1</f>
         <v>1</v>
@@ -4530,37 +4530,37 @@
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C67" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D68" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D69" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D70" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C73" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>118</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D76" s="18" t="s">
         <v>55</v>
       </c>
@@ -4579,14 +4579,14 @@
       <c r="G76" s="28"/>
       <c r="H76" s="29"/>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D77" s="18" t="s">
         <v>57</v>
       </c>
       <c r="E77" s="30"/>
       <c r="F77" s="30"/>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D78" s="18" t="s">
         <v>58</v>
       </c>
@@ -4602,7 +4602,7 @@
       <c r="G78" s="10"/>
       <c r="H78" s="8"/>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E79" s="4" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.FORMULATEXT(E78)</f>
         <v>= LAMBDA(text,start_delimiter,end_delimiter,
@@ -4612,7 +4612,7 @@
 ))(E76, E77, F77)</v>
       </c>
     </row>
-    <row r="81" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>119</v>
       </c>
@@ -4620,7 +4620,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="82" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D82" s="18" t="s">
         <v>55</v>
       </c>
@@ -4631,14 +4631,14 @@
       <c r="G82" s="28"/>
       <c r="H82" s="29"/>
     </row>
-    <row r="83" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D83" s="18" t="s">
         <v>57</v>
       </c>
       <c r="E83" s="30"/>
       <c r="F83" s="30"/>
     </row>
-    <row r="84" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D84" s="18" t="s">
         <v>58</v>
       </c>
@@ -4660,7 +4660,7 @@
       <c r="G84" s="10"/>
       <c r="H84" s="8"/>
     </row>
-    <row r="85" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:8" x14ac:dyDescent="0.3">
       <c r="E85" s="4" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.FORMULATEXT(E84)</f>
         <v>= LAMBDA(text,[start_delimiter],[end_delimiter],
@@ -4676,7 +4676,7 @@
 )(E82, E83, F83)</v>
       </c>
     </row>
-    <row r="87" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>120</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="88" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D88" s="18" t="s">
         <v>55</v>
       </c>
@@ -4695,7 +4695,7 @@
       <c r="G88" s="28"/>
       <c r="H88" s="29"/>
     </row>
-    <row r="89" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D89" s="18" t="s">
         <v>57</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="90" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D90" s="18" t="s">
         <v>63</v>
       </c>
@@ -4717,7 +4717,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="91" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D91" s="18" t="s">
         <v>58</v>
       </c>
@@ -4746,7 +4746,7 @@
       <c r="G91" s="10"/>
       <c r="H91" s="8"/>
     </row>
-    <row r="92" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:8" x14ac:dyDescent="0.3">
       <c r="E92" s="4" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.FORMULATEXT(E91)</f>
         <v>= LAMBDA(text,[start_delimiter],[end_delimiter],[start_instance],[end_instance],
@@ -4769,7 +4769,7 @@
 )(E88, E89, F89, E90, F90)</v>
       </c>
     </row>
-    <row r="94" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>121</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="95" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D95" s="18" t="s">
         <v>55</v>
       </c>
@@ -4788,7 +4788,7 @@
       <c r="G95" s="28"/>
       <c r="H95" s="29"/>
     </row>
-    <row r="96" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D96" s="18" t="s">
         <v>57</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="97" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D97" s="18" t="s">
         <v>63</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="98" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D98" s="18" t="s">
         <v>66</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D99" s="18" t="s">
         <v>58</v>
       </c>
@@ -4852,7 +4852,7 @@
       <c r="G99" s="10"/>
       <c r="H99" s="8"/>
     </row>
-    <row r="100" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:8" x14ac:dyDescent="0.3">
       <c r="E100" s="4" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.FORMULATEXT(E99)</f>
         <v>= LAMBDA(text,[start_delimiter],[end_delimiter],[start_instance],[end_instance],[case_sensitive],
@@ -4880,7 +4880,7 @@
 )(E95, E96, F96, E97, F97, E98)</v>
       </c>
     </row>
-    <row r="102" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>122</v>
       </c>
@@ -4888,7 +4888,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="103" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D103" s="18" t="s">
         <v>55</v>
       </c>
@@ -4899,7 +4899,7 @@
       <c r="G103" s="28"/>
       <c r="H103" s="29"/>
     </row>
-    <row r="104" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D104" s="18" t="s">
         <v>57</v>
       </c>
@@ -4910,7 +4910,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="105" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D105" s="18" t="s">
         <v>63</v>
       </c>
@@ -4921,7 +4921,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="106" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D106" s="18" t="s">
         <v>66</v>
       </c>
@@ -4929,7 +4929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D107" s="18" t="s">
         <v>68</v>
       </c>
@@ -4938,7 +4938,7 @@
       </c>
       <c r="F107" s="29"/>
     </row>
-    <row r="108" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D108" s="18" t="s">
         <v>58</v>
       </c>
@@ -4977,7 +4977,7 @@
       <c r="G108" s="10"/>
       <c r="H108" s="8"/>
     </row>
-    <row r="109" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="3:8" x14ac:dyDescent="0.3">
       <c r="E109" s="4" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.FORMULATEXT(E108)</f>
         <v>= LAMBDA(text,[start_delimiter],[end_delimiter],[start_instance],[end_instance],[case_sensitive],[if_not_found],
@@ -5010,7 +5010,7 @@
 )(E103, E104, F104, E105, F105, E106, E107)</v>
       </c>
     </row>
-    <row r="111" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C111" t="s">
         <v>123</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="112" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D112" s="18" t="s">
         <v>55</v>
       </c>
@@ -5029,7 +5029,7 @@
       <c r="G112" s="28"/>
       <c r="H112" s="29"/>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D113" s="18" t="s">
         <v>57</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D114" s="18" t="s">
         <v>63</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D115" s="18" t="s">
         <v>66</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D116" s="18" t="s">
         <v>68</v>
       </c>
@@ -5068,7 +5068,7 @@
       </c>
       <c r="F116" s="29"/>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D117" s="18" t="s">
         <v>58</v>
       </c>
@@ -5109,7 +5109,7 @@
       <c r="G117" s="10"/>
       <c r="H117" s="8"/>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E118" s="4" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.FORMULATEXT(E117)</f>
         <v>= LAMBDA(text,[start_delimiter],[end_delimiter],[start_instance],[end_instance],[case_sensitive],[if_not_found],
@@ -5144,7 +5144,7 @@
 )(E112, E113, F113, E114, F114, E115, E116)</v>
       </c>
     </row>
-    <row r="121" spans="2:8" s="13" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:8" s="13" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B121" s="14">
         <f xml:space="preserve"> MAX(B$1:B120) + 1</f>
         <v>2</v>
@@ -5153,27 +5153,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C123" s="17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D124" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D125" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C127" s="17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D128" s="31" t="s">
         <v>19</v>
       </c>
@@ -5181,7 +5181,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="129" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D129" s="31" t="s">
         <v>79</v>
       </c>
@@ -5189,19 +5189,19 @@
         <v>116</v>
       </c>
     </row>
-    <row r="130" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D130" s="31"/>
       <c r="F130" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="131" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D131" s="31"/>
       <c r="F131" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D132" s="31" t="s">
         <v>78</v>
       </c>
@@ -5209,19 +5209,19 @@
         <v>117</v>
       </c>
     </row>
-    <row r="133" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D133" s="31"/>
       <c r="F133" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="134" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D134" s="31"/>
       <c r="F134" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="135" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D135" s="31" t="s">
         <v>77</v>
       </c>
@@ -5229,13 +5229,13 @@
         <v>127</v>
       </c>
     </row>
-    <row r="136" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D136" s="31"/>
       <c r="F136" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="137" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D137" s="31"/>
       <c r="F137" s="41" t="s">
         <v>133</v>
@@ -5244,7 +5244,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D138" s="31"/>
       <c r="F138" s="41" t="s">
         <v>134</v>
@@ -5253,7 +5253,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D139" s="31" t="s">
         <v>76</v>
       </c>
@@ -5261,13 +5261,13 @@
         <v>128</v>
       </c>
     </row>
-    <row r="140" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D140" s="31"/>
       <c r="F140" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="141" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D141" s="31"/>
       <c r="F141" s="41" t="s">
         <v>133</v>
@@ -5276,7 +5276,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="142" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D142" s="31"/>
       <c r="F142" s="41" t="s">
         <v>134</v>
@@ -5285,7 +5285,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="143" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D143" s="31" t="s">
         <v>75</v>
       </c>
@@ -5293,19 +5293,19 @@
         <v>139</v>
       </c>
     </row>
-    <row r="144" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D144" s="31"/>
       <c r="F144" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="145" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D145" s="31"/>
       <c r="F145" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="146" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D146" s="31" t="s">
         <v>32</v>
       </c>
@@ -5313,19 +5313,19 @@
         <v>124</v>
       </c>
     </row>
-    <row r="147" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D147" s="31"/>
       <c r="F147" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="148" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D148" s="31"/>
       <c r="F148" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="149" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D149" s="31"/>
       <c r="F149" s="25" t="b">
         <v>1</v>
@@ -5334,7 +5334,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="150" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="3:7" x14ac:dyDescent="0.3">
       <c r="F150" s="25" t="b">
         <v>0</v>
       </c>
@@ -5342,18 +5342,18 @@
         <v>143</v>
       </c>
     </row>
-    <row r="151" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="3:7" x14ac:dyDescent="0.3">
       <c r="F151" t="s">
         <v>146</v>
       </c>
       <c r="G151" s="5"/>
     </row>
-    <row r="153" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C153" s="17" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="154" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D154" s="39" t="e">
         <v>#VALUE!</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="155" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D155" s="39" t="e">
         <v>#VALUE!</v>
       </c>
@@ -5369,7 +5369,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="156" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D156" s="39" t="e">
         <v>#VALUE!</v>
       </c>
@@ -5377,253 +5377,253 @@
         <v>151</v>
       </c>
     </row>
-    <row r="158" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C158" s="17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="159" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D159" s="31" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D160" s="36" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D161" s="32" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="162" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D162" s="32" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="163" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D163" s="32" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="164" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D164" s="32" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="165" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D165" s="32" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="166" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D166" s="32" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="167" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D167" s="32" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="168" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D168" s="36" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="169" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D169" s="32" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D170" s="37" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="171" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D171" s="33" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="172" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D172" s="33" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="173" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D173" s="33" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="174" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D174" s="33" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="175" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D175" s="33" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="176" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D176" s="37" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="177" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D177" s="37" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="178" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D178" s="33" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="179" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D179" s="34" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="180" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D180" s="34" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="181" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D181" s="34" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="182" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D182" s="33" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="183" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D183" s="33" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="184" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D184" s="37" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="185" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D185" s="37" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="186" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D186" s="33" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="187" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D187" s="34" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="188" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D188" s="35" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="189" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D189" s="35" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="190" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D190" s="35" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="191" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D191" s="34" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="192" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D192" s="34" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="193" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D193" s="34">
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D194" s="33" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="195" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D195" s="37" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="196" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D196" s="33" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="197" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D197" s="34" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="198" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D198" s="34" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="199" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D199" s="33" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="200" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D200" s="37" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="201" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D201" s="33" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="202" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D202" s="33" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="203" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D203" s="32" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D204" s="31" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D207" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D208" s="38" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="210" spans="2:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="211" spans="2:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="211" spans="2:2" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B211" s="7" t="s">
         <v>3</v>
       </c>
@@ -5649,17 +5649,17 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="4.28515625" customWidth="1"/>
+    <col min="1" max="3" width="4.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:18" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C1" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="2:18" s="13" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:18" s="13" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="14">
         <f xml:space="preserve"> MAX(B$1:B1) + 1</f>
         <v>1</v>
@@ -5668,7 +5668,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
       <c r="D4" s="43" t="s">
         <v>159</v>
       </c>
@@ -5676,7 +5676,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="D5" s="43" t="s">
         <v>160</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B8" s="40" t="s">
         <v>162</v>
       </c>
@@ -5705,12 +5705,12 @@
       <c r="Q8" s="24"/>
       <c r="R8" s="24"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
       <c r="C10" s="44" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D11" s="58" t="s">
         <v>168</v>
       </c>
@@ -5728,7 +5728,7 @@
       <c r="J11" s="58"/>
       <c r="K11" s="58"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
       <c r="D12" s="51" t="s">
         <v>171</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>= RXL_TextBetween(D12, G12, H12)</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
       <c r="D13" s="45" t="s">
         <v>171</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>= RXL_TextBetween(D13, G13, H13)</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
       <c r="D14" s="45" t="s">
         <v>171</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>= RXL_TextBetween(D14, G14, H14)</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
       <c r="D15" s="45" t="s">
         <v>171</v>
       </c>
@@ -5812,12 +5812,12 @@
         <v>= RXL_TextBetween(D15, G15, H15)</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="44" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="D18" s="45" t="s">
         <v>174</v>
       </c>
@@ -5840,7 +5840,7 @@
         <v>= RXL_TextBetween(D18, G18, H18)</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="D19" s="45" t="s">
         <v>174</v>
       </c>
@@ -5863,7 +5863,7 @@
         <v>= RXL_TextBetween(D19, G19, H19, 1, 1)</v>
       </c>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="D20" s="45" t="s">
         <v>174</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>= RXL_TextBetween(D20, G20, H20, -1, -1)</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="D21" s="45" t="s">
         <v>174</v>
       </c>
@@ -5909,12 +5909,12 @@
         <v>= RXL_TextBetween(D21, G21, H21, -1, 1)</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="44" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="D24" s="45" t="s">
         <v>171</v>
       </c>
@@ -5937,7 +5937,7 @@
         <v>= RXL_TextBetween(D24, G24, H24)</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="D25" s="45" t="s">
         <v>171</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>= RXL_TextBetween(D25, G25, H25, , , , "(not found)")</v>
       </c>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="D26" s="45" t="s">
         <v>171</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>= RXL_TextBetween(D26, G26, H26, , , , FALSE)</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="D27" s="45" t="s">
         <v>171</v>
       </c>
@@ -6006,12 +6006,12 @@
         <v>= RXL_TextBetween(D27, G27, H27, , , , TRUE)</v>
       </c>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="44" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="D30" s="45" t="s">
         <v>177</v>
       </c>
@@ -6034,7 +6034,7 @@
         <v>= RXL_TextBetween(D30, G30, H30, -1)</v>
       </c>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="D31" s="45" t="s">
         <v>177</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>= RXL_TextBetween(D31, G31, H31, -1, , TRUE)</v>
       </c>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="D32" s="45" t="s">
         <v>177</v>
       </c>
@@ -6080,8 +6080,8 @@
         <v>= RXL_TextBetween(D32, G32, H32, -1, , FALSE)</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="2:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="2:2" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>3</v>
       </c>
@@ -6102,17 +6102,17 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="4.28515625" customWidth="1"/>
+    <col min="1" max="2" width="4.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:4" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -6120,7 +6120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
         <v>0</v>
       </c>
@@ -6131,7 +6131,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>1</v>
       </c>
@@ -6139,7 +6139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>0</v>
       </c>
@@ -6150,8 +6150,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="2:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
         <v>3</v>
       </c>

--- a/RXL_TextBetween.xlsx
+++ b/RXL_TextBetween.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USBC Backup\_RXL\Development\LAMBDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE7F555-8B6C-487A-AF85-AE5BDF902D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5DA455-4F75-49B2-93C5-A2CD1ED27F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C29E0D24-0EA8-4D41-8E06-9F040E158B6C}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="184">
   <si>
     <t>)</t>
   </si>
@@ -2219,6 +2219,12 @@
   </si>
   <si>
     <t>Output</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gist URL:  </t>
+  </si>
+  <si>
+    <t>https://gist.github.com/r-silk/b33b16e634e1ff6aa054cd6149964d80</t>
   </si>
 </sst>
 </file>
@@ -3411,7 +3417,7 @@
     <xf numFmtId="166" fontId="13" fillId="40" borderId="11" applyNumberFormat="0"/>
     <xf numFmtId="0" fontId="52" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="171" fontId="16" fillId="32" borderId="10" xfId="59" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3526,6 +3532,7 @@
     <xf numFmtId="166" fontId="13" fillId="0" borderId="27" xfId="49" applyBorder="1"/>
     <xf numFmtId="166" fontId="13" fillId="0" borderId="30" xfId="49" applyBorder="1"/>
     <xf numFmtId="0" fontId="55" fillId="41" borderId="28" xfId="91" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="73"/>
   </cellXfs>
   <cellStyles count="92">
     <cellStyle name="20% - Accent1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -5642,7 +5649,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2478FAD8-1E3A-4DD9-B273-ABB42BEDBDF6}">
-  <dimension ref="B1:R36"/>
+  <dimension ref="B1:R37"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5684,91 +5691,78 @@
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="40" t="s">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="D6" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B9" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C10" s="44" t="s">
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C11" s="44" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="58" t="s">
+    <row r="12" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D12" s="58" t="s">
         <v>168</v>
       </c>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58" t="s">
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58" t="s">
         <v>169</v>
       </c>
-      <c r="H11" s="58" t="s">
+      <c r="H12" s="58" t="s">
         <v>170</v>
       </c>
-      <c r="I11" s="58" t="s">
+      <c r="I12" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="D12" s="51" t="s">
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="D13" s="51" t="s">
         <v>171</v>
       </c>
-      <c r="E12" s="52"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="54" t="s">
+      <c r="E13" s="52"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="H12" s="54" t="s">
+      <c r="H13" s="54" t="s">
         <v>173</v>
       </c>
-      <c r="I12" s="55" t="str" cm="1">
-        <f t="array" ref="I12" xml:space="preserve"> RXL_TextBetween(D12, G12, H12)</f>
+      <c r="I13" s="55" t="str" cm="1">
+        <f t="array" ref="I13" xml:space="preserve"> RXL_TextBetween(D13, G13, H13)</f>
         <v>9876</v>
       </c>
-      <c r="J12" s="56"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="4" t="str">
-        <f ca="1" xml:space="preserve"> _xlfn.FORMULATEXT(I12)</f>
-        <v>= RXL_TextBetween(D12, G12, H12)</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="D13" s="45" t="s">
-        <v>171</v>
-      </c>
-      <c r="E13" s="46"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="H13" s="30"/>
-      <c r="I13" s="48" t="str" cm="1">
-        <f t="array" ref="I13" xml:space="preserve"> RXL_TextBetween(D13, G13, H13)</f>
-        <v>9876//001</v>
-      </c>
-      <c r="J13" s="49"/>
-      <c r="K13" s="50"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57"/>
       <c r="L13" s="4" t="str">
-        <f t="shared" ref="L13:L15" ca="1" si="0" xml:space="preserve"> _xlfn.FORMULATEXT(I13)</f>
+        <f ca="1" xml:space="preserve"> _xlfn.FORMULATEXT(I13)</f>
         <v>= RXL_TextBetween(D13, G13, H13)</v>
       </c>
     </row>
@@ -5778,18 +5772,18 @@
       </c>
       <c r="E14" s="46"/>
       <c r="F14" s="47"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30" t="s">
-        <v>173</v>
-      </c>
+      <c r="G14" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="H14" s="30"/>
       <c r="I14" s="48" t="str" cm="1">
         <f t="array" ref="I14" xml:space="preserve"> RXL_TextBetween(D14, G14, H14)</f>
-        <v>ABC-9876</v>
+        <v>9876//001</v>
       </c>
       <c r="J14" s="49"/>
       <c r="K14" s="50"/>
       <c r="L14" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ref="L14:L16" ca="1" si="0" xml:space="preserve"> _xlfn.FORMULATEXT(I14)</f>
         <v>= RXL_TextBetween(D14, G14, H14)</v>
       </c>
     </row>
@@ -5800,10 +5794,12 @@
       <c r="E15" s="46"/>
       <c r="F15" s="47"/>
       <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
+      <c r="H15" s="30" t="s">
+        <v>173</v>
+      </c>
       <c r="I15" s="48" t="str" cm="1">
         <f t="array" ref="I15" xml:space="preserve"> RXL_TextBetween(D15, G15, H15)</f>
-        <v>ABC-9876//001</v>
+        <v>ABC-9876</v>
       </c>
       <c r="J15" s="49"/>
       <c r="K15" s="50"/>
@@ -5812,32 +5808,28 @@
         <v>= RXL_TextBetween(D15, G15, H15)</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C17" s="44" t="s">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="D16" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="E16" s="46"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="48" t="str" cm="1">
+        <f t="array" ref="I16" xml:space="preserve"> RXL_TextBetween(D16, G16, H16)</f>
+        <v>ABC-9876//001</v>
+      </c>
+      <c r="J16" s="49"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>= RXL_TextBetween(D16, G16, H16)</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C18" s="44" t="s">
         <v>165</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="D18" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="E18" s="46"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="H18" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="I18" s="48" t="str" cm="1">
-        <f t="array" ref="I18" xml:space="preserve"> RXL_TextBetween(D18, G18, H18)</f>
-        <v>-9876/</v>
-      </c>
-      <c r="J18" s="49"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="4" t="str">
-        <f t="shared" ref="L18:L21" ca="1" si="1" xml:space="preserve"> _xlfn.FORMULATEXT(I18)</f>
-        <v>= RXL_TextBetween(D18, G18, H18)</v>
       </c>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.3">
@@ -5853,14 +5845,14 @@
         <v>175</v>
       </c>
       <c r="I19" s="48" t="str" cm="1">
-        <f t="array" ref="I19" xml:space="preserve"> RXL_TextBetween(D19, G19, H19, 1, 1)</f>
-        <v>-9876</v>
+        <f t="array" ref="I19" xml:space="preserve"> RXL_TextBetween(D19, G19, H19)</f>
+        <v>-9876/</v>
       </c>
       <c r="J19" s="49"/>
       <c r="K19" s="50"/>
       <c r="L19" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>= RXL_TextBetween(D19, G19, H19, 1, 1)</v>
+        <f t="shared" ref="L19:L22" ca="1" si="1" xml:space="preserve"> _xlfn.FORMULATEXT(I19)</f>
+        <v>= RXL_TextBetween(D19, G19, H19)</v>
       </c>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.3">
@@ -5876,14 +5868,14 @@
         <v>175</v>
       </c>
       <c r="I20" s="48" t="str" cm="1">
-        <f t="array" ref="I20" xml:space="preserve"> RXL_TextBetween(D20, G20, H20, -1, -1)</f>
-        <v>9876/</v>
+        <f t="array" ref="I20" xml:space="preserve"> RXL_TextBetween(D20, G20, H20, 1, 1)</f>
+        <v>-9876</v>
       </c>
       <c r="J20" s="49"/>
       <c r="K20" s="50"/>
       <c r="L20" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>= RXL_TextBetween(D20, G20, H20, -1, -1)</v>
+        <v>= RXL_TextBetween(D20, G20, H20, 1, 1)</v>
       </c>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.3">
@@ -5899,42 +5891,42 @@
         <v>175</v>
       </c>
       <c r="I21" s="48" t="str" cm="1">
-        <f t="array" ref="I21" xml:space="preserve"> RXL_TextBetween(D21, G21, H21, -1, 1)</f>
-        <v>9876</v>
+        <f t="array" ref="I21" xml:space="preserve"> RXL_TextBetween(D21, G21, H21, -1, -1)</f>
+        <v>9876/</v>
       </c>
       <c r="J21" s="49"/>
       <c r="K21" s="50"/>
       <c r="L21" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>= RXL_TextBetween(D21, G21, H21, -1, 1)</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C23" s="44" t="s">
+        <v>= RXL_TextBetween(D21, G21, H21, -1, -1)</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="D22" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="E22" s="46"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="H22" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="I22" s="48" t="str" cm="1">
+        <f t="array" ref="I22" xml:space="preserve"> RXL_TextBetween(D22, G22, H22, -1, 1)</f>
+        <v>9876</v>
+      </c>
+      <c r="J22" s="49"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>= RXL_TextBetween(D22, G22, H22, -1, 1)</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C24" s="44" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="D24" s="45" t="s">
-        <v>171</v>
-      </c>
-      <c r="E24" s="46"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H24" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="I24" s="48" t="e" cm="1">
-        <f t="array" ref="I24" xml:space="preserve"> RXL_TextBetween(D24, G24, H24)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J24" s="49"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="4" t="str">
-        <f t="shared" ref="L24:L27" ca="1" si="2" xml:space="preserve"> _xlfn.FORMULATEXT(I24)</f>
-        <v>= RXL_TextBetween(D24, G24, H24)</v>
       </c>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.3">
@@ -5949,15 +5941,15 @@
       <c r="H25" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="I25" s="48" t="str" cm="1">
-        <f t="array" ref="I25" xml:space="preserve"> RXL_TextBetween(D25, G25, H25, , , , "(not found)")</f>
-        <v>(not found)</v>
+      <c r="I25" s="48" t="e" cm="1">
+        <f t="array" ref="I25" xml:space="preserve"> RXL_TextBetween(D25, G25, H25)</f>
+        <v>#N/A</v>
       </c>
       <c r="J25" s="49"/>
       <c r="K25" s="50"/>
       <c r="L25" s="4" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>= RXL_TextBetween(D25, G25, H25, , , , "(not found)")</v>
+        <f t="shared" ref="L25:L28" ca="1" si="2" xml:space="preserve"> _xlfn.FORMULATEXT(I25)</f>
+        <v>= RXL_TextBetween(D25, G25, H25)</v>
       </c>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.3">
@@ -5972,15 +5964,15 @@
       <c r="H26" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="I26" s="48" t="e" cm="1">
-        <f t="array" ref="I26" xml:space="preserve"> RXL_TextBetween(D26, G26, H26, , , , FALSE)</f>
-        <v>#N/A</v>
+      <c r="I26" s="48" t="str" cm="1">
+        <f t="array" ref="I26" xml:space="preserve"> RXL_TextBetween(D26, G26, H26, , , , "(not found)")</f>
+        <v>(not found)</v>
       </c>
       <c r="J26" s="49"/>
       <c r="K26" s="50"/>
       <c r="L26" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>= RXL_TextBetween(D26, G26, H26, , , , FALSE)</v>
+        <v>= RXL_TextBetween(D26, G26, H26, , , , "(not found)")</v>
       </c>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.3">
@@ -5995,43 +5987,43 @@
       <c r="H27" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="I27" s="48" t="str" cm="1">
-        <f t="array" ref="I27" xml:space="preserve"> RXL_TextBetween(D27, G27, H27, , , , TRUE)</f>
-        <v>ABC-9876//001</v>
+      <c r="I27" s="48" t="e" cm="1">
+        <f t="array" ref="I27" xml:space="preserve"> RXL_TextBetween(D27, G27, H27, , , , FALSE)</f>
+        <v>#N/A</v>
       </c>
       <c r="J27" s="49"/>
       <c r="K27" s="50"/>
       <c r="L27" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>= RXL_TextBetween(D27, G27, H27, , , , TRUE)</v>
-      </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C29" s="44" t="s">
+        <v>= RXL_TextBetween(D27, G27, H27, , , , FALSE)</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="D28" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="E28" s="46"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="I28" s="48" t="str" cm="1">
+        <f t="array" ref="I28" xml:space="preserve"> RXL_TextBetween(D28, G28, H28, , , , TRUE)</f>
+        <v>ABC-9876//001</v>
+      </c>
+      <c r="J28" s="49"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>= RXL_TextBetween(D28, G28, H28, , , , TRUE)</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C30" s="44" t="s">
         <v>167</v>
-      </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="D30" s="45" t="s">
-        <v>177</v>
-      </c>
-      <c r="E30" s="46"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="H30" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="I30" s="48" t="str" cm="1">
-        <f t="array" ref="I30" xml:space="preserve"> RXL_TextBetween(D30, G30, H30, -1)</f>
-        <v xml:space="preserve"> a test </v>
-      </c>
-      <c r="J30" s="49"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="4" t="str">
-        <f t="shared" ref="L30:L32" ca="1" si="3" xml:space="preserve"> _xlfn.FORMULATEXT(I30)</f>
-        <v>= RXL_TextBetween(D30, G30, H30, -1)</v>
       </c>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.3">
@@ -6044,17 +6036,17 @@
         <v>178</v>
       </c>
       <c r="H31" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="I31" s="48" t="e" cm="1">
-        <f t="array" ref="I31" xml:space="preserve"> RXL_TextBetween(D31, G31, H31, -1, , TRUE)</f>
-        <v>#N/A</v>
+        <v>179</v>
+      </c>
+      <c r="I31" s="48" t="str" cm="1">
+        <f t="array" ref="I31" xml:space="preserve"> RXL_TextBetween(D31, G31, H31, -1)</f>
+        <v xml:space="preserve"> a test </v>
       </c>
       <c r="J31" s="49"/>
       <c r="K31" s="50"/>
       <c r="L31" s="4" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>= RXL_TextBetween(D31, G31, H31, -1, , TRUE)</v>
+        <f t="shared" ref="L31:L33" ca="1" si="3" xml:space="preserve"> _xlfn.FORMULATEXT(I31)</f>
+        <v>= RXL_TextBetween(D31, G31, H31, -1)</v>
       </c>
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.3">
@@ -6069,26 +6061,52 @@
       <c r="H32" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="I32" s="48" t="str" cm="1">
-        <f t="array" ref="I32" xml:space="preserve"> RXL_TextBetween(D32, G32, H32, -1, , FALSE)</f>
-        <v xml:space="preserve"> a test </v>
+      <c r="I32" s="48" t="e" cm="1">
+        <f t="array" ref="I32" xml:space="preserve"> RXL_TextBetween(D32, G32, H32, -1, , TRUE)</f>
+        <v>#N/A</v>
       </c>
       <c r="J32" s="49"/>
       <c r="K32" s="50"/>
       <c r="L32" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>= RXL_TextBetween(D32, G32, H32, -1, , FALSE)</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="36" spans="2:2" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="7" t="s">
+        <v>= RXL_TextBetween(D32, G32, H32, -1, , TRUE)</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D33" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="E33" s="46"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="H33" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="I33" s="48" t="str" cm="1">
+        <f t="array" ref="I33" xml:space="preserve"> RXL_TextBetween(D33, G33, H33, -1, , FALSE)</f>
+        <v xml:space="preserve"> a test </v>
+      </c>
+      <c r="J33" s="49"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="4" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>= RXL_TextBetween(D33, G33, H33, -1, , FALSE)</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="7" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1" xr:uid="{CA82F8EA-E1F2-464C-A2D2-BC8F74D592BF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/RXL_TextBetween.xlsx
+++ b/RXL_TextBetween.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USBC Backup\_RXL\Development\LAMBDA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\_RXL\Development\LAMBDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5DA455-4F75-49B2-93C5-A2CD1ED27F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B480AF-58A7-4284-BDEB-8E2AAAA1A084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C29E0D24-0EA8-4D41-8E06-9F040E158B6C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C29E0D24-0EA8-4D41-8E06-9F040E158B6C}"/>
   </bookViews>
   <sheets>
     <sheet name="TextBetween" sheetId="13" r:id="rId1"/>
@@ -3605,7 +3605,7 @@
     <cellStyle name="Output - SubTotal" xfId="68" xr:uid="{3944BA35-D861-48C8-BF5E-3B5A261E1A76}"/>
     <cellStyle name="Output - Text" xfId="69" xr:uid="{D8AED5B9-3D8F-49BF-8E7D-B2C435B0B345}"/>
     <cellStyle name="Output - Total" xfId="70" xr:uid="{4535EB24-0E67-4CEB-99CB-25A662CC9E57}"/>
-    <cellStyle name="Per cent" xfId="5" builtinId="5" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5" customBuiltin="1"/>
     <cellStyle name="Ref.In - #" xfId="78" xr:uid="{7AC7FA44-CE33-4D97-A9FF-6DB2BE2FBF7C}"/>
     <cellStyle name="Ref.In - %" xfId="79" xr:uid="{BE627C07-1DF5-42CE-90A7-95B617354C42}"/>
     <cellStyle name="Ref.In - Date" xfId="80" xr:uid="{70FB18BE-2731-4B77-8479-BF1A1A35C14E}"/>
@@ -4128,19 +4128,19 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="4.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="1" max="3" width="4.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="19"/>
       <c r="C1" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>12</v>
       </c>
@@ -4162,37 +4162,37 @@
       <c r="R3" s="24"/>
       <c r="S3" s="24"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D7" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D8" s="20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D11" s="21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D13" s="22" t="s">
         <v>19</v>
       </c>
@@ -4200,19 +4200,19 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D14" s="22"/>
       <c r="F14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D15" s="22"/>
       <c r="F15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="22" t="s">
         <v>22</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D17" s="22" t="s">
         <v>23</v>
       </c>
@@ -4228,19 +4228,19 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D18" s="22"/>
       <c r="F18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D19" s="22"/>
       <c r="F19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D20" s="22" t="s">
         <v>26</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D21" s="22"/>
       <c r="F21" s="25">
         <v>0</v>
@@ -4257,7 +4257,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D22" s="22"/>
       <c r="F22" s="25">
         <v>1</v>
@@ -4266,7 +4266,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D23" s="22" t="s">
         <v>29</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D24" s="22"/>
       <c r="F24" s="25">
         <v>0</v>
@@ -4283,7 +4283,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D25" s="22"/>
       <c r="F25" s="25">
         <v>1</v>
@@ -4292,7 +4292,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D26" s="22" t="s">
         <v>32</v>
       </c>
@@ -4300,17 +4300,17 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.2">
       <c r="F27" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C28" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D29" s="23" t="e">
         <v>#VALUE!</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D30" s="23" t="e">
         <v>#N/A</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D31" s="23" t="e">
         <v>#N/A</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B34" s="40" t="s">
         <v>44</v>
       </c>
@@ -4356,37 +4356,37 @@
       <c r="R34" s="24"/>
       <c r="S34" s="24"/>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="D38" s="20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="D39" s="20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="D42" s="21" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="D44" s="22" t="s">
         <v>19</v>
       </c>
@@ -4394,19 +4394,19 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="D45" s="22"/>
       <c r="F45" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="D46" s="22"/>
       <c r="F46" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="D47" s="22" t="s">
         <v>22</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="D48" s="22" t="s">
         <v>23</v>
       </c>
@@ -4422,19 +4422,19 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D49" s="22"/>
       <c r="F49" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D50" s="22"/>
       <c r="F50" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D51" s="22" t="s">
         <v>26</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D52" s="22"/>
       <c r="F52" s="25">
         <v>0</v>
@@ -4451,7 +4451,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D53" s="22"/>
       <c r="F53" s="25">
         <v>1</v>
@@ -4460,7 +4460,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D54" s="22" t="s">
         <v>29</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D55" s="22"/>
       <c r="F55" s="25">
         <v>0</v>
@@ -4477,7 +4477,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D56" s="22"/>
       <c r="F56" s="25">
         <v>1</v>
@@ -4486,7 +4486,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D57" s="22" t="s">
         <v>32</v>
       </c>
@@ -4494,17 +4494,17 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" x14ac:dyDescent="0.2">
       <c r="F58" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C59" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D60" s="23" t="e">
         <v>#VALUE!</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D61" s="23" t="e">
         <v>#N/A</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D62" s="23" t="e">
         <v>#N/A</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="2:8" s="13" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:8" s="13" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="14">
         <f xml:space="preserve"> MAX(B$1:B1) + 1</f>
         <v>1</v>
@@ -4537,37 +4537,37 @@
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C67" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D68" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D69" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D70" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D71" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C73" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
         <v>118</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D76" s="18" t="s">
         <v>55</v>
       </c>
@@ -4586,14 +4586,14 @@
       <c r="G76" s="28"/>
       <c r="H76" s="29"/>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D77" s="18" t="s">
         <v>57</v>
       </c>
       <c r="E77" s="30"/>
       <c r="F77" s="30"/>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D78" s="18" t="s">
         <v>58</v>
       </c>
@@ -4609,7 +4609,7 @@
       <c r="G78" s="10"/>
       <c r="H78" s="8"/>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E79" s="4" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.FORMULATEXT(E78)</f>
         <v>= LAMBDA(text,start_delimiter,end_delimiter,
@@ -4619,7 +4619,7 @@
 ))(E76, E77, F77)</v>
       </c>
     </row>
-    <row r="81" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C81" t="s">
         <v>119</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="82" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D82" s="18" t="s">
         <v>55</v>
       </c>
@@ -4638,14 +4638,14 @@
       <c r="G82" s="28"/>
       <c r="H82" s="29"/>
     </row>
-    <row r="83" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D83" s="18" t="s">
         <v>57</v>
       </c>
       <c r="E83" s="30"/>
       <c r="F83" s="30"/>
     </row>
-    <row r="84" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D84" s="18" t="s">
         <v>58</v>
       </c>
@@ -4667,7 +4667,7 @@
       <c r="G84" s="10"/>
       <c r="H84" s="8"/>
     </row>
-    <row r="85" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E85" s="4" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.FORMULATEXT(E84)</f>
         <v>= LAMBDA(text,[start_delimiter],[end_delimiter],
@@ -4683,7 +4683,7 @@
 )(E82, E83, F83)</v>
       </c>
     </row>
-    <row r="87" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C87" t="s">
         <v>120</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="88" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D88" s="18" t="s">
         <v>55</v>
       </c>
@@ -4702,7 +4702,7 @@
       <c r="G88" s="28"/>
       <c r="H88" s="29"/>
     </row>
-    <row r="89" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D89" s="18" t="s">
         <v>57</v>
       </c>
@@ -4713,7 +4713,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="90" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D90" s="18" t="s">
         <v>63</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="91" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D91" s="18" t="s">
         <v>58</v>
       </c>
@@ -4753,7 +4753,7 @@
       <c r="G91" s="10"/>
       <c r="H91" s="8"/>
     </row>
-    <row r="92" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E92" s="4" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.FORMULATEXT(E91)</f>
         <v>= LAMBDA(text,[start_delimiter],[end_delimiter],[start_instance],[end_instance],
@@ -4776,7 +4776,7 @@
 )(E88, E89, F89, E90, F90)</v>
       </c>
     </row>
-    <row r="94" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C94" t="s">
         <v>121</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="95" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D95" s="18" t="s">
         <v>55</v>
       </c>
@@ -4795,7 +4795,7 @@
       <c r="G95" s="28"/>
       <c r="H95" s="29"/>
     </row>
-    <row r="96" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D96" s="18" t="s">
         <v>57</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="97" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D97" s="18" t="s">
         <v>63</v>
       </c>
@@ -4817,7 +4817,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="98" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D98" s="18" t="s">
         <v>66</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D99" s="18" t="s">
         <v>58</v>
       </c>
@@ -4859,7 +4859,7 @@
       <c r="G99" s="10"/>
       <c r="H99" s="8"/>
     </row>
-    <row r="100" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E100" s="4" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.FORMULATEXT(E99)</f>
         <v>= LAMBDA(text,[start_delimiter],[end_delimiter],[start_instance],[end_instance],[case_sensitive],
@@ -4887,7 +4887,7 @@
 )(E95, E96, F96, E97, F97, E98)</v>
       </c>
     </row>
-    <row r="102" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C102" t="s">
         <v>122</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="103" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D103" s="18" t="s">
         <v>55</v>
       </c>
@@ -4906,7 +4906,7 @@
       <c r="G103" s="28"/>
       <c r="H103" s="29"/>
     </row>
-    <row r="104" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D104" s="18" t="s">
         <v>57</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="105" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D105" s="18" t="s">
         <v>63</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="106" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D106" s="18" t="s">
         <v>66</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D107" s="18" t="s">
         <v>68</v>
       </c>
@@ -4945,7 +4945,7 @@
       </c>
       <c r="F107" s="29"/>
     </row>
-    <row r="108" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D108" s="18" t="s">
         <v>58</v>
       </c>
@@ -4984,7 +4984,7 @@
       <c r="G108" s="10"/>
       <c r="H108" s="8"/>
     </row>
-    <row r="109" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E109" s="4" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.FORMULATEXT(E108)</f>
         <v>= LAMBDA(text,[start_delimiter],[end_delimiter],[start_instance],[end_instance],[case_sensitive],[if_not_found],
@@ -5017,7 +5017,7 @@
 )(E103, E104, F104, E105, F105, E106, E107)</v>
       </c>
     </row>
-    <row r="111" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C111" t="s">
         <v>123</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="112" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D112" s="18" t="s">
         <v>55</v>
       </c>
@@ -5036,7 +5036,7 @@
       <c r="G112" s="28"/>
       <c r="H112" s="29"/>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D113" s="18" t="s">
         <v>57</v>
       </c>
@@ -5047,7 +5047,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D114" s="18" t="s">
         <v>63</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D115" s="18" t="s">
         <v>66</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D116" s="18" t="s">
         <v>68</v>
       </c>
@@ -5075,7 +5075,7 @@
       </c>
       <c r="F116" s="29"/>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D117" s="18" t="s">
         <v>58</v>
       </c>
@@ -5116,7 +5116,7 @@
       <c r="G117" s="10"/>
       <c r="H117" s="8"/>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E118" s="4" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.FORMULATEXT(E117)</f>
         <v>= LAMBDA(text,[start_delimiter],[end_delimiter],[start_instance],[end_instance],[case_sensitive],[if_not_found],
@@ -5151,7 +5151,7 @@
 )(E112, E113, F113, E114, F114, E115, E116)</v>
       </c>
     </row>
-    <row r="121" spans="2:8" s="13" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:8" s="13" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="14">
         <f xml:space="preserve"> MAX(B$1:B120) + 1</f>
         <v>2</v>
@@ -5160,27 +5160,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C123" s="17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D124" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D125" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C127" s="17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D128" s="31" t="s">
         <v>19</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="129" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D129" s="31" t="s">
         <v>79</v>
       </c>
@@ -5196,19 +5196,19 @@
         <v>116</v>
       </c>
     </row>
-    <row r="130" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D130" s="31"/>
       <c r="F130" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="131" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D131" s="31"/>
       <c r="F131" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D132" s="31" t="s">
         <v>78</v>
       </c>
@@ -5216,19 +5216,19 @@
         <v>117</v>
       </c>
     </row>
-    <row r="133" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D133" s="31"/>
       <c r="F133" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="134" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D134" s="31"/>
       <c r="F134" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="135" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D135" s="31" t="s">
         <v>77</v>
       </c>
@@ -5236,13 +5236,13 @@
         <v>127</v>
       </c>
     </row>
-    <row r="136" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D136" s="31"/>
       <c r="F136" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="137" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D137" s="31"/>
       <c r="F137" s="41" t="s">
         <v>133</v>
@@ -5251,7 +5251,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D138" s="31"/>
       <c r="F138" s="41" t="s">
         <v>134</v>
@@ -5260,7 +5260,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D139" s="31" t="s">
         <v>76</v>
       </c>
@@ -5268,13 +5268,13 @@
         <v>128</v>
       </c>
     </row>
-    <row r="140" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D140" s="31"/>
       <c r="F140" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="141" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D141" s="31"/>
       <c r="F141" s="41" t="s">
         <v>133</v>
@@ -5283,7 +5283,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="142" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D142" s="31"/>
       <c r="F142" s="41" t="s">
         <v>134</v>
@@ -5292,7 +5292,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="143" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D143" s="31" t="s">
         <v>75</v>
       </c>
@@ -5300,19 +5300,19 @@
         <v>139</v>
       </c>
     </row>
-    <row r="144" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D144" s="31"/>
       <c r="F144" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="145" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D145" s="31"/>
       <c r="F145" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="146" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D146" s="31" t="s">
         <v>32</v>
       </c>
@@ -5320,19 +5320,19 @@
         <v>124</v>
       </c>
     </row>
-    <row r="147" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D147" s="31"/>
       <c r="F147" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="148" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D148" s="31"/>
       <c r="F148" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="149" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D149" s="31"/>
       <c r="F149" s="25" t="b">
         <v>1</v>
@@ -5341,7 +5341,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="150" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="3:7" x14ac:dyDescent="0.2">
       <c r="F150" s="25" t="b">
         <v>0</v>
       </c>
@@ -5349,18 +5349,18 @@
         <v>143</v>
       </c>
     </row>
-    <row r="151" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="3:7" x14ac:dyDescent="0.2">
       <c r="F151" t="s">
         <v>146</v>
       </c>
       <c r="G151" s="5"/>
     </row>
-    <row r="153" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C153" s="17" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="154" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D154" s="39" t="e">
         <v>#VALUE!</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="155" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D155" s="39" t="e">
         <v>#VALUE!</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="156" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D156" s="39" t="e">
         <v>#VALUE!</v>
       </c>
@@ -5384,253 +5384,253 @@
         <v>151</v>
       </c>
     </row>
-    <row r="158" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C158" s="17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="159" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D159" s="31" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D160" s="36" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D161" s="32" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="162" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D162" s="32" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="163" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D163" s="32" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="164" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D164" s="32" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="165" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D165" s="32" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="166" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D166" s="32" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="167" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D167" s="32" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="168" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D168" s="36" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="169" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D169" s="32" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D170" s="37" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="171" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D171" s="33" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="172" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D172" s="33" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="173" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D173" s="33" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="174" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D174" s="33" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="175" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D175" s="33" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="176" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D176" s="37" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="177" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D177" s="37" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="178" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D178" s="33" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="179" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D179" s="34" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="180" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D180" s="34" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="181" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D181" s="34" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="182" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D182" s="33" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="183" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D183" s="33" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="184" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D184" s="37" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="185" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D185" s="37" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="186" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D186" s="33" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="187" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D187" s="34" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="188" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D188" s="35" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="189" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D189" s="35" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="190" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D190" s="35" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="191" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D191" s="34" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="192" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D192" s="34" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="193" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D193" s="34">
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D194" s="33" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="195" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D195" s="37" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="196" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D196" s="33" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="197" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D197" s="34" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="198" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D198" s="34" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="199" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D199" s="33" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="200" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D200" s="37" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="201" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D201" s="33" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="202" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D202" s="33" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="203" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D203" s="32" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D204" s="31" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D207" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D208" s="38" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="210" spans="2:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="211" spans="2:2" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="211" spans="2:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B211" s="7" t="s">
         <v>3</v>
       </c>
@@ -5656,17 +5656,17 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="4.33203125" customWidth="1"/>
+    <col min="1" max="3" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:18" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C1" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="2:18" s="13" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:18" s="13" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="14">
         <f xml:space="preserve"> MAX(B$1:B1) + 1</f>
         <v>1</v>
@@ -5675,7 +5675,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D4" s="43" t="s">
         <v>159</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D5" s="43" t="s">
         <v>160</v>
       </c>
@@ -5691,7 +5691,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D6" s="43" t="s">
         <v>182</v>
       </c>
@@ -5699,7 +5699,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B9" s="40" t="s">
         <v>162</v>
       </c>
@@ -5720,12 +5720,12 @@
       <c r="Q9" s="24"/>
       <c r="R9" s="24"/>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C11" s="44" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="12" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D12" s="58" t="s">
         <v>168</v>
       </c>
@@ -5743,7 +5743,7 @@
       <c r="J12" s="58"/>
       <c r="K12" s="58"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D13" s="51" t="s">
         <v>171</v>
       </c>
@@ -5766,7 +5766,7 @@
         <v>= RXL_TextBetween(D13, G13, H13)</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D14" s="45" t="s">
         <v>171</v>
       </c>
@@ -5787,7 +5787,7 @@
         <v>= RXL_TextBetween(D14, G14, H14)</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D15" s="45" t="s">
         <v>171</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v>= RXL_TextBetween(D15, G15, H15)</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D16" s="45" t="s">
         <v>171</v>
       </c>
@@ -5827,12 +5827,12 @@
         <v>= RXL_TextBetween(D16, G16, H16)</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="44" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="D19" s="45" t="s">
         <v>174</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>= RXL_TextBetween(D19, G19, H19)</v>
       </c>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="D20" s="45" t="s">
         <v>174</v>
       </c>
@@ -5878,7 +5878,7 @@
         <v>= RXL_TextBetween(D20, G20, H20, 1, 1)</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="D21" s="45" t="s">
         <v>174</v>
       </c>
@@ -5901,7 +5901,7 @@
         <v>= RXL_TextBetween(D21, G21, H21, -1, -1)</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="D22" s="45" t="s">
         <v>174</v>
       </c>
@@ -5924,12 +5924,12 @@
         <v>= RXL_TextBetween(D22, G22, H22, -1, 1)</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="44" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="D25" s="45" t="s">
         <v>171</v>
       </c>
@@ -5952,7 +5952,7 @@
         <v>= RXL_TextBetween(D25, G25, H25)</v>
       </c>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="D26" s="45" t="s">
         <v>171</v>
       </c>
@@ -5975,7 +5975,7 @@
         <v>= RXL_TextBetween(D26, G26, H26, , , , "(not found)")</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="D27" s="45" t="s">
         <v>171</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>= RXL_TextBetween(D27, G27, H27, , , , FALSE)</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="D28" s="45" t="s">
         <v>171</v>
       </c>
@@ -6021,12 +6021,12 @@
         <v>= RXL_TextBetween(D28, G28, H28, , , , TRUE)</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="44" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="D31" s="45" t="s">
         <v>177</v>
       </c>
@@ -6049,7 +6049,7 @@
         <v>= RXL_TextBetween(D31, G31, H31, -1)</v>
       </c>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="D32" s="45" t="s">
         <v>177</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>= RXL_TextBetween(D32, G32, H32, -1, , TRUE)</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D33" s="45" t="s">
         <v>177</v>
       </c>
@@ -6095,8 +6095,8 @@
         <v>= RXL_TextBetween(D33, G33, H33, -1, , FALSE)</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="37" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="7" t="s">
         <v>3</v>
       </c>
@@ -6120,17 +6120,17 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="4.33203125" customWidth="1"/>
+    <col min="1" max="2" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -6138,7 +6138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" s="3">
         <v>0</v>
       </c>
@@ -6149,7 +6149,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" s="3">
         <v>1</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" s="3">
         <v>0</v>
       </c>
@@ -6168,8 +6168,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="2:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
         <v>3</v>
       </c>
